--- a/config_Release/fishing3d_kpshb_config.xlsx
+++ b/config_Release/fishing3d_kpshb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -40,19 +40,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6,8,20,50,140,400</t>
+    <t>5,15,60</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>60,80,200,500,1400,4000</t>
+    <t>jd|进度值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>600,800,2000,5000,14000,40000</t>
+    <t>show_hb|大厅展示红包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6000,8000,20000,50000,140000,400000</t>
+    <t>500,1500,6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,15000,60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,150,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,950000,4500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,9500000,45000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,95000000,450000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000,950000000,4500000000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,6 +178,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -162,7 +197,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,9 +222,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -201,6 +233,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -485,15 +523,15 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="105.375" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="22.125" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
@@ -515,8 +553,12 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -535,11 +577,17 @@
       <c r="B2" s="1">
         <v>21315</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -549,11 +597,17 @@
       <c r="B3" s="1">
         <v>21316</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>5</v>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -563,11 +617,17 @@
       <c r="B4" s="1">
         <v>21317</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -577,11 +637,17 @@
       <c r="B5" s="1">
         <v>21318</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>7</v>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1502,14 +1568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -1517,13 +1575,13 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -1540,7 +1598,7 @@
 </comments>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1548,7 +1606,7 @@
 </settings>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
@@ -1556,38 +1614,46 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/fishing3d_kpshb_config.xlsx
+++ b/config_Release/fishing3d_kpshb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="config|" sheetId="5" r:id="rId1"/>
+    <sheet name="jjconfig" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|'!$A$1:$A$2</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>id|行号，从1开始，连续就行</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -77,6 +78,242 @@
   </si>
   <si>
     <t>300000000,950000000,4500000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hb_show|红包展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3;5#5;10;15#40;50;60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;30;50#50;100;150#400;500;600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;300;500#500;1000;1500#4000;5000;6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000;3000;5000#5000;10000;15000#40000;50000;60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000金币;3福利券;5福利券#5000金币;10福利券;15福利券#4万金币;50福利券;60福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币;30福利券;50福利券#5万金币;100福利券;150福利券#40万金币;500福利券;600福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万金币;300福利券;500福利券#50万金币;1000福利券;1500福利券#400万金币;5000福利券;6000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万金币;300福利券;500福利券#50万金币;1000福利券;1500福利券#400万金币;5000福利券;6000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万金币;3000福利券;5000福利券#500万金币;1万福利券;1.5万福利券#4000万金币;5万福利券;6万福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_nor</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_kpshb_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_jjkpshb_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_jjkpshb_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_jjkpshb_cps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_value|奖励数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type|奖励类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30,50,50,100,150,400,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,300,500,500,1000,1500,4000,5000,6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,3000,5000,5000,10000,15000,40000,50000,60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30,50,50000,100,150,400000,500,600</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,300,500,500000,1000,1500,4000000,5000,6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,3000,5000,5000000,10000,15000,40000000,50000,60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum","shop_gold_sum"</t>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","shop_gold_sum","jing_bi","shop_gold_sum","shop_gold_sum","jing_bi","shop_gold_sum","shop_gold_sum"</t>
+  </si>
+  <si>
+    <t>1,3,5,5,10,15,40,50,60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30,50,50,100,150,400,500,600</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,300,500,500,1000,1500,4000,5000,6000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,4000,5000,5000,10000,15000,40000,50000,60000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,3,5,5000,10,15,40000,50,60</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30,50,50000,100,150,400000,500,600</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300,500,500000,1000,1500,4000000,5000,6000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,3000,5000,5000000,10000,15000,40000000,50000,60000</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +475,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +784,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,9 +794,1282 @@
     <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="96.25" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="10" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="53.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="129.25" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="14" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21315</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21316</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>600</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21317</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21318</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1000053</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1000054</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>600</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1000055</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1000056</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="6"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="6"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43" s="18"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45" s="18"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" s="18"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47" s="18"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" s="18"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49" s="18"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+    </row>
+    <row r="54" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" s="18"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" s="18"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" s="18"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58" s="18"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59" s="18"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60" s="18"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" s="18"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62" s="18"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63" s="18"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" s="18"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65" s="18"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" s="18"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" s="18"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68" s="18"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69" s="18"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70" s="18"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71" s="18"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" s="18"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73" s="18"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74" s="18"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75" s="18"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76" s="18"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" s="18"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78" s="18"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79" s="18"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" s="18"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81" s="18"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82" s="18"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" s="18"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84" s="18"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85" s="18"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86" s="18"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" s="18"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88" s="18"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="90" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90" s="18"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="96" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" s="18"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+    </row>
+    <row r="97" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" s="18"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+    </row>
+    <row r="98" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98" s="18"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" s="18"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" s="18"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P99"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="90.25" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="66.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="50.375" customWidth="1"/>
     <col min="11" max="12" width="18.625" customWidth="1"/>
     <col min="13" max="14" width="24.5" customWidth="1"/>
   </cols>
@@ -559,10 +2093,18 @@
       <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -575,19 +2117,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>21315</v>
+        <v>1000046</v>
       </c>
       <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>60</v>
+        <v>600</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -595,19 +2149,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>21316</v>
+        <v>1000047</v>
       </c>
       <c r="C3" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>600</v>
+        <v>6000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -615,149 +2181,295 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>21317</v>
-      </c>
-      <c r="C4" s="8">
+        <v>1000048</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>60000</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B5" s="14">
+        <v>1000058</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>600</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1000059</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F6" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21318</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1000060</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F7" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="5"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D9" s="5"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D11" s="5"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D13" s="5"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D14" s="5"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42" s="18"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
     <row r="43" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
     <row r="44" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44" s="18"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
     </row>
     <row r="45" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45"/>
@@ -766,7 +2478,7 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45" s="18"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -782,7 +2494,7 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46" s="18"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -798,7 +2510,7 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47" s="18"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
@@ -814,7 +2526,7 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" s="18"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -824,36 +2536,36 @@
       <c r="P48"/>
     </row>
     <row r="49" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
     </row>
     <row r="50" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
@@ -862,7 +2574,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -878,7 +2590,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -894,7 +2606,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -904,20 +2616,20 @@
       <c r="P53" s="4"/>
     </row>
     <row r="54" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" s="18"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
     </row>
     <row r="55" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55"/>
@@ -926,7 +2638,7 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55"/>
+      <c r="I55" s="18"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -942,7 +2654,7 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56"/>
+      <c r="I56" s="18"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -958,7 +2670,7 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57"/>
+      <c r="I57" s="18"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -974,7 +2686,7 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58" s="18"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -990,7 +2702,7 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
-      <c r="I59"/>
+      <c r="I59" s="18"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -1006,7 +2718,7 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60"/>
+      <c r="I60" s="18"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -1022,7 +2734,7 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61"/>
+      <c r="I61" s="18"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -1038,7 +2750,7 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-      <c r="I62"/>
+      <c r="I62" s="18"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -1054,7 +2766,7 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63"/>
+      <c r="I63" s="18"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -1070,7 +2782,7 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64" s="18"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -1086,7 +2798,7 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65"/>
+      <c r="I65" s="18"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -1102,7 +2814,7 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66"/>
+      <c r="I66" s="18"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -1118,7 +2830,7 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="I67"/>
+      <c r="I67" s="18"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -1134,7 +2846,7 @@
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="I68"/>
+      <c r="I68" s="18"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -1150,7 +2862,7 @@
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69"/>
+      <c r="I69" s="18"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -1166,7 +2878,7 @@
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="I70"/>
+      <c r="I70" s="18"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -1182,7 +2894,7 @@
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71"/>
+      <c r="I71" s="18"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -1198,7 +2910,7 @@
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72"/>
+      <c r="I72" s="18"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -1214,7 +2926,7 @@
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73"/>
+      <c r="I73" s="18"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -1230,7 +2942,7 @@
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="I74"/>
+      <c r="I74" s="18"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -1246,7 +2958,7 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75"/>
+      <c r="I75" s="18"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -1262,7 +2974,7 @@
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="I76"/>
+      <c r="I76" s="18"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
@@ -1278,7 +2990,7 @@
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
-      <c r="I77"/>
+      <c r="I77" s="18"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -1294,7 +3006,7 @@
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="I78"/>
+      <c r="I78" s="18"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -1310,7 +3022,7 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="I79"/>
+      <c r="I79" s="18"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
@@ -1326,7 +3038,7 @@
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="I80"/>
+      <c r="I80" s="18"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -1342,7 +3054,7 @@
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="I81"/>
+      <c r="I81" s="18"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
@@ -1358,7 +3070,7 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82"/>
+      <c r="I82" s="18"/>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
@@ -1374,7 +3086,7 @@
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
-      <c r="I83"/>
+      <c r="I83" s="18"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
@@ -1390,7 +3102,7 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="I84"/>
+      <c r="I84" s="18"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
@@ -1406,7 +3118,7 @@
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="I85"/>
+      <c r="I85" s="18"/>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
@@ -1422,7 +3134,7 @@
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="I86"/>
+      <c r="I86" s="18"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
@@ -1438,7 +3150,7 @@
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="I87"/>
+      <c r="I87" s="18"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -1447,46 +3159,46 @@
       <c r="O87"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-    </row>
-    <row r="90" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-    </row>
-    <row r="96" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89" s="18"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="95" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95" s="18"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+    </row>
+    <row r="96" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96"/>
+      <c r="I96" s="18"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
@@ -1502,7 +3214,7 @@
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
-      <c r="I97"/>
+      <c r="I97" s="18"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
@@ -1518,7 +3230,7 @@
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98"/>
+      <c r="I98" s="18"/>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
@@ -1534,7 +3246,7 @@
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="I99"/>
+      <c r="I99" s="18"/>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
@@ -1543,24 +3255,7 @@
       <c r="O99"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N91"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1568,6 +3263,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -1575,13 +3276,31 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -1598,62 +3317,38 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_Release/fishing3d_kpshb_config.xlsx
+++ b/config_Release/fishing3d_kpshb_config.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|'!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -244,23 +244,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,4000,5000,5000,10000,15000,40000,50000,60000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>000,3,5,5000,10,15,40000,50,60</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -314,6 +297,10 @@
       </rPr>
       <t>000000,3000,5000,5000000,10000,15000,40000000,50000,60000</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,3000,5000,5000,10000,15000,40000,50000,60000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +768,10 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>41</v>
@@ -995,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>42</v>
@@ -1027,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>42</v>
@@ -1059,7 +1046,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>42</v>
@@ -1091,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>42</v>
@@ -3263,9 +3250,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3277,30 +3266,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -3317,8 +3288,24 @@
 </comments>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3330,13 +3317,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3348,7 +3335,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>